--- a/Docs/Site-Map.xlsx
+++ b/Docs/Site-Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ARS.CODEDY\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8E946-CDDC-4D97-BBDC-7CEE8BC53F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551BD7C8-513E-4D19-9AED-9C3F92BA4028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{35998CCE-1D86-426C-A58D-E9408A1C0014}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>HOME</t>
   </si>
@@ -45,24 +45,9 @@
     <t>Services</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>booking</t>
   </si>
   <si>
-    <t>lever 1</t>
-  </si>
-  <si>
-    <t>lever 2</t>
-  </si>
-  <si>
-    <t>lever 3</t>
-  </si>
-  <si>
-    <t>[tab] Danh sách chuyến bay tìm kiếm được</t>
-  </si>
-  <si>
     <t>[tab] Thông tin hành khách</t>
   </si>
   <si>
@@ -75,9 +60,6 @@
     <t>Nội dung</t>
   </si>
   <si>
-    <t>Chứa form tìm kiếm &amp; các thông tin quảng cáo, địa danh đẹp, …</t>
-  </si>
-  <si>
     <t>Giới thiệu về hãng hàng không chúng tôi</t>
   </si>
   <si>
@@ -90,17 +72,137 @@
     <t>Thông tin liên hệ, hỏi đáp, khiếu nại</t>
   </si>
   <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>Quản lý đặt chỗ</t>
+    <t>Thông tin đặt vé</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Nhảy theo GET</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/contact</t>
+  </si>
+  <si>
+    <t>http://ars.codedy</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/booking</t>
+  </si>
+  <si>
+    <t>Lever 1</t>
+  </si>
+  <si>
+    <t>Lever 2</t>
+  </si>
+  <si>
+    <t>Lever 3</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/booking?tab=1</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/booking?tab=2</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/booking?tab=3</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/booking?tab=4</t>
+  </si>
+  <si>
+    <t>giữ vẽ / đặt vé</t>
+  </si>
+  <si>
+    <t>Danh sách vé</t>
+  </si>
+  <si>
+    <t>Chi tiết vé</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/ticket</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/tictet/detail?id=</t>
+  </si>
+  <si>
+    <t>Sửa thông tin vé</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/tictet/edit?id=</t>
+  </si>
+  <si>
+    <t>Đổi chỗ ngồi, hạng ghế, thêm dịch vụ</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/schedule</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/schedule/detail?code=</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Thông tin hành trình</t>
+  </si>
+  <si>
+    <t>Kiểm tra lịch bay, hoãn giờ bay, …</t>
+  </si>
+  <si>
+    <t>Xem thông tin chi tiết</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/login</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/registration</t>
+  </si>
+  <si>
+    <t>Xem hồ sơ tài khoản</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/account</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/about</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/services</t>
+  </si>
+  <si>
+    <t>http://ars.codedy/news</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Chứa form tìm kiếm &amp; quảng cáo, địa danh đẹp, …</t>
+  </si>
+  <si>
+    <t>[tab] Danh sách chuyến bay tìm được</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +233,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -155,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -166,8 +285,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,111 +609,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB46CF3-F4F5-420A-B59C-49DC247BF976}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="38.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="3.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="46.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
+    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
+      <c r="G21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{2EF8C284-2399-483B-A93D-BB1BCF645119}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{D974E076-0A92-483F-9251-208AA2433416}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{953CF4F3-0562-4143-96A3-74050AC3BEBF}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{AC4532BE-30FC-40B6-BD4E-ED8F50FE0997}"/>
+    <hyperlink ref="G6:G8" r:id="rId5" display="http://ars.codedy/booking?tab=1" xr:uid="{4C4D14EE-2841-42BE-869D-D6B2E4CBB4E9}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{ECB53C46-B535-4907-A4E5-9D0ECF72B166}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{809035EA-CEA2-4C23-8719-4E03A750484C}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{0E3D3289-489B-4C91-BD2E-096DA41D580D}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{9EC3E146-7CEE-41D1-9A37-358E477522DC}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{F817A89A-A72A-4638-9445-140ED9398D8C}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{B16B0F4A-3283-40F0-B07B-12A585FFE826}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{2751F988-2BD0-4123-83AB-08665E01E64B}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{AFC7B402-A7EC-432B-8E5B-CB5EB5004B1B}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{3C2D8594-FB16-418A-8F09-B282ABBFDFB9}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{093358F4-CC69-4FD2-A9B8-BD8E8DB3DC5B}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{E96D4F24-217A-468A-AD09-DA3EA7AE54DE}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{02635A00-3196-4FA4-A482-4772AF990CAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>